--- a/config_3.9/activity_ty_task_config.xlsx
+++ b/config_3.9/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>index|索引</t>
   </si>
@@ -182,40 +182,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1,2,3,4,5,6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,7,8,9</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,11,12,13,14,15,16,17,18</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -237,26 +203,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在龙王争霸中累计赢金80万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中连胜2局</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -277,7 +223,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8000,</t>
+    <t>150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -285,229 +235,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险当前层数+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险当前层数+3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼海底宝藏中击杀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1条深海狂鲨</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼海底宝藏中击3条深海狂鲨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得300话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计赢金30万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计赢金80万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500000</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中累计赢金150万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在龙王争霸中累计赢金30万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在龙王争霸中累计赢金150万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在苹果大战中累计纯赢80万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果大战中种出1次金苹果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>yxfl_bg_1</t>
   </si>
   <si>
@@ -515,10 +250,6 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -530,11 +261,190 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>节日福利需求</t>
+    <t>免费金币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>节日福利需求_cjj</t>
+    <t>免费金币_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费金币_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀红包鱼累计获得50福利券</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出2个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出4个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金60万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中连胜3局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏以上场次任意击杀3条boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀红包鱼累计获得150福利券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除2次孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金30万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18.19.20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +525,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,19 +632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -739,6 +642,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1019,7 +935,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1061,16 +977,16 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="25">
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="20">
         <v>1</v>
       </c>
       <c r="F2" s="7"/>
@@ -1080,16 +996,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="31">
+      <c r="B3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="26">
         <v>2</v>
       </c>
     </row>
@@ -1104,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1032,7 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1147,42 +1063,42 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27">
-        <v>1</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25" t="s">
-        <v>31</v>
+      <c r="B2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30">
-        <v>1</v>
-      </c>
-      <c r="E3" s="31">
-        <v>1</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="29" t="s">
-        <v>32</v>
+      <c r="B3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1201,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1130,7 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
@@ -1238,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -1291,25 +1207,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>1000331</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="23" t="s">
+        <v>1000363</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="31">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1323,25 +1239,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>1000332</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="23" t="s">
+        <v>1000364</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>48</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1357,25 +1273,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>1000333</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>84</v>
+        <v>1000365</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1389,25 +1305,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>1000334</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="20">
-        <v>1</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>84</v>
+        <v>1000366</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1421,25 +1337,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>1000335</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="22" t="s">
+        <v>1000367</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="20">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>84</v>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1453,25 +1369,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>1000336</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>84</v>
+        <v>1000368</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1486,25 +1402,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>1000337</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>84</v>
+        <v>1000369</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1512,25 +1428,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>1000338</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22" t="s">
+        <v>1000370</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1538,51 +1454,51 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>1000339</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22" t="s">
+        <v>1000371</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>1000340</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>43</v>
+        <v>1000372</v>
+      </c>
+      <c r="C11" s="31">
+        <v>150</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1590,10 +1506,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>1000341</v>
+        <v>1000373</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>67</v>
@@ -1602,13 +1518,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1616,25 +1532,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>1000342</v>
+        <v>1000374</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1642,25 +1558,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>1000343</v>
+        <v>1000375</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1668,25 +1584,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>1000344</v>
+        <v>1000376</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1694,25 +1610,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>1000345</v>
+        <v>1000377</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1720,25 +1636,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>1000346</v>
+        <v>1000378</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1746,25 +1662,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>1000347</v>
+        <v>1000379</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1772,25 +1688,77 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>1000348</v>
+        <v>1000380</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1000381</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1000382</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/config_3.9/activity_ty_task_config.xlsx
+++ b/config_3.9/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
   <si>
     <t>index|索引</t>
   </si>
@@ -219,23 +219,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>150</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -446,13 +434,217 @@
   <si>
     <t>11,12,13,14,15,16,17,18.19.20</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sxlgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,22,23,24</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,26,27,28,29</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在商城中购买3次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15元</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次30元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次50元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次98元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次2498元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次998元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次498元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买3次198元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+  </si>
+  <si>
+    <t>"swjl_1","swjl_2"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"swjl_3","swjl_4"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"美的多功能锅"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"美的电烤箱"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼油","飞科剃须刀"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"琥珀核桃500g"，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实物奖励二选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实物奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>588888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>088888,</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,8 +716,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,6 +759,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -593,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,7 +808,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
@@ -655,6 +858,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -932,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,10 +1185,10 @@
       <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -977,36 +1196,70 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="B3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="25">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="35">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,53 +1313,88 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20" t="s">
-        <v>96</v>
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="38">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38">
+        <v>1</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1</v>
+      </c>
+      <c r="D5" s="35">
+        <v>1</v>
+      </c>
+      <c r="E5" s="35">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1117,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1134,7 +1422,7 @@
     <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
@@ -1192,574 +1480,845 @@
       <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
+    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>1000363</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="31">
-        <v>1</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1000364</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="13"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1000365</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="13"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1000366</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="13"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1000367</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1000364</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="H6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="13"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1000368</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="31">
-        <v>1</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="D7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1000369</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1000370</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="14"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="H9" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1000371</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1000372</v>
+      </c>
+      <c r="C11" s="30">
+        <v>150</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1000373</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1000374</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1000375</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1000376</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1000377</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1000378</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1000379</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1000380</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1000381</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1000382</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="41">
+        <v>21</v>
+      </c>
+      <c r="B22" s="42">
+        <v>1000386</v>
+      </c>
+      <c r="C22" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>1000365</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="31">
-        <v>1</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="14"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1000366</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="31">
-        <v>1</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="14"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1000367</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="31">
-        <v>1</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="14"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1000368</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1000369</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="31">
-        <v>1</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1000370</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="31">
-        <v>1</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1000371</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="31">
-        <v>1</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1000372</v>
-      </c>
-      <c r="C11" s="31">
-        <v>150</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="31">
-        <v>1</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1000373</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1000374</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1000375</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1000376</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1000377</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="D22" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="42">
+        <v>1</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1000378</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1000379</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1000380</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1000381</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1000382</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="G22" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="41">
+        <v>22</v>
+      </c>
+      <c r="B23" s="42">
+        <v>1000387</v>
+      </c>
+      <c r="C23" s="42">
+        <v>3</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="42">
+        <v>1</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="41">
+        <v>23</v>
+      </c>
+      <c r="B24" s="42">
+        <v>1000388</v>
+      </c>
+      <c r="C24" s="42">
+        <v>3</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="42">
+        <v>1</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="41">
+        <v>24</v>
+      </c>
+      <c r="B25" s="42">
+        <v>1000389</v>
+      </c>
+      <c r="C25" s="42">
+        <v>3</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="42">
+        <v>1</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="41">
+        <v>25</v>
+      </c>
+      <c r="B26" s="42">
+        <v>1000390</v>
+      </c>
+      <c r="C26" s="42">
+        <v>3</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="42">
+        <v>1</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="42"/>
+      <c r="L26" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="41">
+        <v>26</v>
+      </c>
+      <c r="B27" s="42">
+        <v>1000391</v>
+      </c>
+      <c r="C27" s="42">
+        <v>3</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="42">
+        <v>1</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="42"/>
+      <c r="L27" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="41">
+        <v>27</v>
+      </c>
+      <c r="B28" s="42">
+        <v>1000392</v>
+      </c>
+      <c r="C28" s="42">
+        <v>3</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="42">
+        <v>1</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="41">
+        <v>28</v>
+      </c>
+      <c r="B29" s="42">
+        <v>1000393</v>
+      </c>
+      <c r="C29" s="42">
+        <v>3</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="42">
+        <v>1</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="41">
+        <v>29</v>
+      </c>
+      <c r="B30" s="42">
+        <v>1000394</v>
+      </c>
+      <c r="C30" s="42">
+        <v>3</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="42">
+        <v>1</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_3.9/activity_ty_task_config.xlsx
+++ b/config_3.9/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
   <si>
     <t>index|索引</t>
   </si>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>act_lgfl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>感恩回馈--v3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -638,6 +634,14 @@
   <si>
     <t>2088888,</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1154,7 +1158,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,13 +1237,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="35">
         <v>3</v>
@@ -1250,13 +1254,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="35">
         <v>4</v>
@@ -1359,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -1372,7 +1376,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1380,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="35">
         <v>1</v>
@@ -1393,7 +1397,7 @@
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>82</v>
@@ -1884,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>80</v>
@@ -1910,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>83</v>
@@ -1936,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>84</v>
@@ -1962,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>85</v>
@@ -1988,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>83</v>
@@ -2014,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>86</v>
@@ -2040,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>87</v>
@@ -2060,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="42">
         <v>1</v>
@@ -2069,10 +2073,10 @@
         <v>35</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -2086,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="42">
         <v>1</v>
@@ -2095,10 +2099,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -2112,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" s="42">
         <v>1</v>
@@ -2121,10 +2125,10 @@
         <v>35</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -2138,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="42">
         <v>1</v>
@@ -2147,10 +2151,10 @@
         <v>35</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -2164,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="42">
         <v>1</v>
@@ -2173,20 +2177,20 @@
         <v>35</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K26" s="42"/>
       <c r="L26" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -2200,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="42">
         <v>1</v>
@@ -2209,20 +2213,20 @@
         <v>35</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="42"/>
       <c r="L27" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -2236,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="42">
         <v>1</v>
@@ -2245,16 +2249,16 @@
         <v>35</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
@@ -2270,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="42">
         <v>1</v>
@@ -2279,16 +2283,16 @@
         <v>35</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
@@ -2302,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="42">
         <v>1</v>
@@ -2311,10 +2315,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">

--- a/config_3.9/activity_ty_task_config.xlsx
+++ b/config_3.9/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -432,10 +432,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>11,12,13,14,15,16,17,18.19.20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>sxlgfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -563,10 +559,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"琥珀核桃500g"，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>实物奖励二选一</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -642,6 +634,14 @@
   <si>
     <t>act_lgfl_v4</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀核桃500g</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1157,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1237,13 +1237,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>96</v>
       </c>
       <c r="E4" s="35">
         <v>3</v>
@@ -1254,13 +1254,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="35">
         <v>4</v>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="23" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="35">
         <v>1</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>82</v>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>80</v>
@@ -1914,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>83</v>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>84</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>85</v>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>83</v>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>86</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>87</v>
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="42">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         <v>35</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="42">
         <v>1</v>
@@ -2099,10 +2099,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -2116,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="42">
         <v>1</v>
@@ -2125,10 +2125,10 @@
         <v>35</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="42">
         <v>1</v>
@@ -2151,10 +2151,10 @@
         <v>35</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -2168,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="42">
         <v>1</v>
@@ -2177,20 +2177,20 @@
         <v>35</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" s="42"/>
       <c r="L26" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -2204,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="42">
         <v>1</v>
@@ -2213,20 +2213,20 @@
         <v>35</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K27" s="42"/>
       <c r="L27" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -2240,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="42">
         <v>1</v>
@@ -2249,16 +2249,16 @@
         <v>35</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="42">
         <v>1</v>
@@ -2283,16 +2283,16 @@
         <v>35</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
@@ -2306,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="42">
         <v>1</v>
@@ -2315,10 +2315,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">

--- a/config_3.9/activity_ty_task_config.xlsx
+++ b/config_3.9/activity_ty_task_config.xlsx
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1923,7 +1923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="41">
         <v>21</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="41">
         <v>22</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="41">
         <v>23</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="41">
         <v>24</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="41">
         <v>25</v>
       </c>
@@ -2182,18 +2182,17 @@
       <c r="H26" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="K26" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="40" t="s">
+      <c r="L26" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="40" t="s">
+      <c r="N26" s="40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="41">
         <v>26</v>
       </c>
@@ -2218,18 +2217,17 @@
       <c r="H27" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="K27" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="L27" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="40" t="s">
+      <c r="N27" s="40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="41">
         <v>27</v>
       </c>
@@ -2260,10 +2258,11 @@
       <c r="J28" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N28" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="41">
         <v>28</v>
       </c>
@@ -2288,14 +2287,10 @@
       <c r="H29" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="41">
         <v>29</v>
       </c>
@@ -2321,7 +2316,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
     </row>
   </sheetData>

--- a/config_3.9/activity_ty_task_config.xlsx
+++ b/config_3.9/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>index|索引</t>
   </si>
@@ -534,10 +534,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"swjl_5",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"美的多功能锅"</t>
     </r>
@@ -607,8 +603,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>2088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>4</t>
+      <t>2088888,</t>
     </r>
     <r>
       <rPr>
@@ -619,28 +639,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>088888,</t>
+      <t>"琥珀核桃500g"</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lgfl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lgfl_v4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,19,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>琥珀核桃500g</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1237,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>94</v>
@@ -1254,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>94</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1423,7 +1423,7 @@
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.625" style="1" bestFit="1" customWidth="1"/>
@@ -2073,10 +2073,10 @@
         <v>35</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -2099,10 +2099,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -2125,10 +2125,10 @@
         <v>35</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -2151,10 +2151,10 @@
         <v>35</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -2177,19 +2177,19 @@
         <v>35</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K26" s="42" t="s">
         <v>108</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N26" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -2212,19 +2212,19 @@
         <v>35</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K27" s="42" t="s">
         <v>109</v>
       </c>
       <c r="L27" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="N27" s="40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -2244,22 +2244,18 @@
         <v>1</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>130</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="N28" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -2282,10 +2278,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
@@ -2310,10 +2306,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
